--- a/artfynd/A 51833-2021.xlsx
+++ b/artfynd/A 51833-2021.xlsx
@@ -802,7 +802,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96460514</v>
+        <v>96460481</v>
       </c>
       <c r="B3" t="n">
         <v>90676</v>
@@ -859,7 +859,7 @@
         <v>6421663.640876411</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
